--- a/biology/Botanique/Filago_vulgaris/Filago_vulgaris.xlsx
+++ b/biology/Botanique/Filago_vulgaris/Filago_vulgaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Filago vulgaris, la Cotonnière commune, est une espèce de plante à fleurs de la famille des Asteraceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cotonnière commune, Cotonnière d'Allemagne, Coton de mer, Herbe à coton, Immortelle d'Allemagne, Cotonnière vulgaire.
 </t>
@@ -542,7 +556,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Filago germanica (L.) Huds. (1762)
 Gnaphalium germanicum L. (1753)</t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce de plante herbacée annuelle peut atteindre 10 à 30 cm de haut. Les capitules de fleurs sont jaunes.
 </t>
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +650,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est trouvée en Europe, en Afrique et en Asie.
 </t>
@@ -661,7 +683,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce figure sur la liste rouge du Nord-Pas-de-Calais.
 En Suisse, elle est aussi sur la liste rouge nationale.
